--- a/13.About hardware/DOFBOT hardware reference manual.xlsx
+++ b/13.About hardware/DOFBOT hardware reference manual.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13065"/>
+    <workbookView windowWidth="28800" windowHeight="13455" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="树莓派&amp;JestsonNano" sheetId="1" r:id="rId1"/>
+    <sheet name="Pi&amp;JestsonNano" sheetId="1" r:id="rId1"/>
     <sheet name="STC51" sheetId="2" r:id="rId2"/>
     <sheet name="STM32" sheetId="3" r:id="rId3"/>
     <sheet name="Arduino UNO" sheetId="4" r:id="rId4"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69">
   <si>
     <t>Function</t>
   </si>
@@ -110,42 +110,21 @@
     <t>TRIG</t>
   </si>
   <si>
-    <t>功能</t>
-  </si>
-  <si>
-    <t>引脚</t>
-  </si>
-  <si>
-    <t>备注</t>
-  </si>
-  <si>
-    <t>I2C接口</t>
+    <t>Pin</t>
   </si>
   <si>
     <t>P0.0</t>
   </si>
   <si>
-    <t>扩展板上的单片机连接到此接口，地址为0x15</t>
-  </si>
-  <si>
     <t>P0.1</t>
   </si>
   <si>
-    <t>串口接口</t>
-  </si>
-  <si>
     <t>TXD</t>
   </si>
   <si>
-    <t>microUSB接口通过CH340串口芯片连接到此接口</t>
-  </si>
-  <si>
     <t>RXD</t>
   </si>
   <si>
-    <t>PS2手柄接收器</t>
-  </si>
-  <si>
     <t>P1.5</t>
   </si>
   <si>
@@ -158,19 +137,10 @@
     <t>P1.4</t>
   </si>
   <si>
-    <t>有源蜂鸣器</t>
-  </si>
-  <si>
     <t>P2.0</t>
   </si>
   <si>
-    <t>超声波接口</t>
-  </si>
-  <si>
     <t>P2.2</t>
-  </si>
-  <si>
-    <t>预留的外扩接口</t>
   </si>
   <si>
     <t>P2.1</t>
@@ -262,12 +232,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -283,23 +253,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -307,51 +262,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -367,7 +278,37 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -381,15 +322,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -411,9 +360,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -428,7 +376,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -443,187 +406,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -689,6 +652,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -700,39 +687,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -755,23 +709,32 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -789,177 +752,197 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1047,7 +1030,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4991100" y="0"/>
+          <a:off x="7391400" y="0"/>
           <a:ext cx="5370830" cy="5932805"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1090,7 +1073,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5010150" y="0"/>
+          <a:off x="7410450" y="0"/>
           <a:ext cx="6066155" cy="6942455"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1133,7 +1116,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5048250" y="0"/>
+          <a:off x="7448550" y="0"/>
           <a:ext cx="6361430" cy="6932930"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1176,7 +1159,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5067300" y="9525"/>
+          <a:off x="7467600" y="9525"/>
           <a:ext cx="2304415" cy="6723380"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1450,8 +1433,8 @@
   <sheetPr/>
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.875" defaultRowHeight="21" customHeight="1" outlineLevelCol="4"/>
@@ -1463,241 +1446,241 @@
   </cols>
   <sheetData>
     <row r="1" ht="38.25" customHeight="1" spans="1:5">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="3"/>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:5">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="6">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="14" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:5">
-      <c r="A3" s="5"/>
-      <c r="B3" s="3" t="s">
+      <c r="A3" s="15"/>
+      <c r="B3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="6">
         <v>5</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="8"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="16"/>
     </row>
     <row r="4" customHeight="1" spans="1:5">
-      <c r="A4" s="4"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="3"/>
+      <c r="A4" s="6"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="5"/>
     </row>
     <row r="5" customHeight="1" spans="1:5">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="6">
         <v>8</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="14" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:5">
-      <c r="A6" s="5"/>
-      <c r="B6" s="3" t="s">
+      <c r="A6" s="15"/>
+      <c r="B6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="6">
         <v>10</v>
       </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="8"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="16"/>
     </row>
     <row r="7" customHeight="1" spans="1:5">
-      <c r="A7" s="4"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="3"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="5"/>
     </row>
     <row r="8" customHeight="1" spans="1:5">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="6">
         <v>19</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="6">
         <v>10</v>
       </c>
-      <c r="E8" s="2"/>
+      <c r="E8" s="13"/>
     </row>
     <row r="9" customHeight="1" spans="1:5">
-      <c r="A9" s="6"/>
-      <c r="B9" s="3" t="s">
+      <c r="A9" s="17"/>
+      <c r="B9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="6">
         <v>21</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="6">
         <v>9</v>
       </c>
-      <c r="E9" s="6"/>
+      <c r="E9" s="17"/>
     </row>
     <row r="10" customHeight="1" spans="1:5">
-      <c r="A10" s="6"/>
-      <c r="B10" s="3" t="s">
+      <c r="A10" s="17"/>
+      <c r="B10" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="6">
         <v>23</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="6">
         <v>11</v>
       </c>
-      <c r="E10" s="6"/>
+      <c r="E10" s="17"/>
     </row>
     <row r="11" customHeight="1" spans="1:5">
-      <c r="A11" s="5"/>
-      <c r="B11" s="3" t="s">
+      <c r="A11" s="15"/>
+      <c r="B11" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="6">
         <v>26</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="6">
         <v>7</v>
       </c>
-      <c r="E11" s="5"/>
+      <c r="E11" s="15"/>
     </row>
     <row r="12" customHeight="1" spans="1:5">
-      <c r="A12" s="4"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="3"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="9" t="s">
+      <c r="A12" s="6"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="5"/>
+    </row>
+    <row r="13" ht="14.25" spans="1:5">
+      <c r="A13" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="6">
         <v>29</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="6">
         <v>5</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="5" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="14" ht="28.5" spans="1:5">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="6">
         <v>33</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="6">
         <v>13</v>
       </c>
-      <c r="E14" s="3"/>
+      <c r="E14" s="5"/>
     </row>
     <row r="15" customHeight="1" spans="1:5">
-      <c r="A15" s="4"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="3"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="5"/>
     </row>
     <row r="16" customHeight="1" spans="1:5">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="6">
         <v>37</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="6">
         <v>26</v>
       </c>
-      <c r="E16" s="3"/>
+      <c r="E16" s="5"/>
     </row>
     <row r="17" customHeight="1" spans="1:5">
-      <c r="A17" s="4"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="3"/>
+      <c r="A17" s="6"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="5"/>
     </row>
     <row r="18" customHeight="1" spans="1:5">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="6">
         <v>38</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="6">
         <v>20</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" s="13" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:5">
-      <c r="A19" s="5"/>
-      <c r="B19" s="3" t="s">
+      <c r="A19" s="15"/>
+      <c r="B19" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="6">
         <v>40</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="6">
         <v>21</v>
       </c>
-      <c r="E19" s="5"/>
+      <c r="E19" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -1713,7 +1696,7 @@
     <mergeCell ref="E18:E19"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" scale="50" orientation="landscape"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -1724,175 +1707,176 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.875" defaultRowHeight="21" customHeight="1" outlineLevelCol="3"/>
   <cols>
     <col min="3" max="3" width="11.125" customWidth="1"/>
+    <col min="4" max="4" width="49.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="38.25" customHeight="1" spans="1:4">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="3"/>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="1:4">
+      <c r="A2" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D2" s="14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:4">
+      <c r="A3" s="15"/>
+      <c r="B3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="2" customHeight="1" spans="1:4">
-      <c r="A2" s="2" t="s">
+      <c r="D3" s="16"/>
+    </row>
+    <row r="4" customHeight="1" spans="1:4">
+      <c r="A4" s="6"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="5"/>
+    </row>
+    <row r="5" customHeight="1" spans="1:4">
+      <c r="A5" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="D5" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="1:4">
+      <c r="A6" s="15"/>
+      <c r="B6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D6" s="16"/>
+    </row>
+    <row r="7" customHeight="1" spans="1:4">
+      <c r="A7" s="6"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="5"/>
+    </row>
+    <row r="8" customHeight="1" spans="1:4">
+      <c r="A8" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="3" customHeight="1" spans="1:4">
-      <c r="A3" s="5"/>
-      <c r="B3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="D8" s="13"/>
+    </row>
+    <row r="9" customHeight="1" spans="1:4">
+      <c r="A9" s="17"/>
+      <c r="B9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="5"/>
-    </row>
-    <row r="4" customHeight="1" spans="1:4">
-      <c r="A4" s="4"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="3"/>
-    </row>
-    <row r="5" customHeight="1" spans="1:4">
-      <c r="A5" s="2" t="s">
+      <c r="D9" s="17"/>
+    </row>
+    <row r="10" customHeight="1" spans="1:4">
+      <c r="A10" s="17"/>
+      <c r="B10" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="4" t="s">
+      <c r="D10" s="17"/>
+    </row>
+    <row r="11" customHeight="1" spans="1:4">
+      <c r="A11" s="15"/>
+      <c r="B11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D11" s="15"/>
+    </row>
+    <row r="12" customHeight="1" spans="1:4">
+      <c r="A12" s="6"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="5"/>
+    </row>
+    <row r="13" customHeight="1" spans="1:4">
+      <c r="A13" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="6" customHeight="1" spans="1:4">
-      <c r="A6" s="5"/>
-      <c r="B6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="4" t="s">
+      <c r="D13" s="5"/>
+    </row>
+    <row r="14" customHeight="1" spans="1:4">
+      <c r="A14" s="6"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="5"/>
+    </row>
+    <row r="15" customHeight="1" spans="1:4">
+      <c r="A15" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="5"/>
-    </row>
-    <row r="7" customHeight="1" spans="1:4">
-      <c r="A7" s="4"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="3"/>
-    </row>
-    <row r="8" customHeight="1" spans="1:4">
-      <c r="A8" s="2" t="s">
+      <c r="D15" s="13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" customHeight="1" spans="1:4">
+      <c r="A16" s="15"/>
+      <c r="B16" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" s="2"/>
-    </row>
-    <row r="9" customHeight="1" spans="1:4">
-      <c r="A9" s="6"/>
-      <c r="B9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D9" s="6"/>
-    </row>
-    <row r="10" customHeight="1" spans="1:4">
-      <c r="A10" s="6"/>
-      <c r="B10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D10" s="6"/>
-    </row>
-    <row r="11" customHeight="1" spans="1:4">
-      <c r="A11" s="5"/>
-      <c r="B11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D11" s="5"/>
-    </row>
-    <row r="12" customHeight="1" spans="1:4">
-      <c r="A12" s="4"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="3"/>
-    </row>
-    <row r="13" customHeight="1" spans="1:4">
-      <c r="A13" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D13" s="3"/>
-    </row>
-    <row r="14" customHeight="1" spans="1:4">
-      <c r="A14" s="4"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="3"/>
-    </row>
-    <row r="15" customHeight="1" spans="1:4">
-      <c r="A15" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" customHeight="1" spans="1:4">
-      <c r="A16" s="5"/>
-      <c r="B16" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" s="5"/>
+      <c r="D16" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -1906,7 +1890,7 @@
     <mergeCell ref="D15:D16"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" scale="75" orientation="landscape"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -1918,175 +1902,177 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.875" defaultRowHeight="21" customHeight="1" outlineLevelCol="3"/>
   <cols>
+    <col min="1" max="1" width="17.875" style="1"/>
     <col min="3" max="3" width="11.125" customWidth="1"/>
+    <col min="4" max="4" width="49.375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="38.25" customHeight="1" spans="1:4">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="2"/>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>32</v>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:4">
-      <c r="A2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:4">
+      <c r="A3" s="8"/>
+      <c r="B3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="9"/>
+    </row>
+    <row r="4" customHeight="1" spans="1:4">
+      <c r="A4" s="10"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="11"/>
+    </row>
+    <row r="5" customHeight="1" spans="1:4">
+      <c r="A5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="1:4">
+      <c r="A6" s="8"/>
+      <c r="B6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="9"/>
+    </row>
+    <row r="7" customHeight="1" spans="1:4">
+      <c r="A7" s="10"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="11"/>
+    </row>
+    <row r="8" customHeight="1" spans="1:4">
+      <c r="A8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="4"/>
+    </row>
+    <row r="9" customHeight="1" spans="1:4">
+      <c r="A9" s="12"/>
+      <c r="B9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="12"/>
+    </row>
+    <row r="10" customHeight="1" spans="1:4">
+      <c r="A10" s="12"/>
+      <c r="B10" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="12"/>
+    </row>
+    <row r="11" customHeight="1" spans="1:4">
+      <c r="A11" s="8"/>
+      <c r="B11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="8"/>
+    </row>
+    <row r="12" customHeight="1" spans="1:4">
+      <c r="A12" s="10"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="11"/>
+    </row>
+    <row r="13" customHeight="1" spans="1:4">
+      <c r="A13" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="11"/>
+    </row>
+    <row r="14" customHeight="1" spans="1:4">
+      <c r="A14" s="10"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="11"/>
+    </row>
+    <row r="15" customHeight="1" spans="1:4">
+      <c r="A15" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" customHeight="1" spans="1:4">
+      <c r="A16" s="8"/>
+      <c r="B16" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" customHeight="1" spans="1:4">
-      <c r="A3" s="5"/>
-      <c r="B3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D3" s="5"/>
-    </row>
-    <row r="4" customHeight="1" spans="1:4">
-      <c r="A4" s="4"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="3"/>
-    </row>
-    <row r="5" customHeight="1" spans="1:4">
-      <c r="A5" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" customHeight="1" spans="1:4">
-      <c r="A6" s="5"/>
-      <c r="B6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D6" s="5"/>
-    </row>
-    <row r="7" customHeight="1" spans="1:4">
-      <c r="A7" s="4"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="3"/>
-    </row>
-    <row r="8" customHeight="1" spans="1:4">
-      <c r="A8" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D8" s="2"/>
-    </row>
-    <row r="9" customHeight="1" spans="1:4">
-      <c r="A9" s="6"/>
-      <c r="B9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D9" s="6"/>
-    </row>
-    <row r="10" customHeight="1" spans="1:4">
-      <c r="A10" s="6"/>
-      <c r="B10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D10" s="6"/>
-    </row>
-    <row r="11" customHeight="1" spans="1:4">
-      <c r="A11" s="5"/>
-      <c r="B11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D11" s="5"/>
-    </row>
-    <row r="12" customHeight="1" spans="1:4">
-      <c r="A12" s="4"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="3"/>
-    </row>
-    <row r="13" customHeight="1" spans="1:4">
-      <c r="A13" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D13" s="3"/>
-    </row>
-    <row r="14" customHeight="1" spans="1:4">
-      <c r="A14" s="4"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="3"/>
-    </row>
-    <row r="15" customHeight="1" spans="1:4">
-      <c r="A15" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" customHeight="1" spans="1:4">
-      <c r="A16" s="5"/>
-      <c r="B16" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D16" s="5"/>
+      <c r="D16" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2100,6 +2086,7 @@
     <mergeCell ref="D15:D16"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="75" orientation="landscape"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -2111,175 +2098,177 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.875" defaultRowHeight="21" customHeight="1" outlineLevelCol="3"/>
   <cols>
+    <col min="1" max="1" width="17.875" style="1"/>
     <col min="3" max="3" width="11.125" customWidth="1"/>
+    <col min="4" max="4" width="49.375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="38.25" customHeight="1" spans="1:4">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="2"/>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>32</v>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:4">
-      <c r="A2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>35</v>
+      <c r="C2" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:4">
-      <c r="A3" s="5"/>
-      <c r="B3" s="3" t="s">
+      <c r="A3" s="8"/>
+      <c r="B3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D3" s="5"/>
+      <c r="C3" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="9"/>
     </row>
     <row r="4" customHeight="1" spans="1:4">
-      <c r="A4" s="4"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="3"/>
+      <c r="A4" s="10"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="11"/>
     </row>
     <row r="5" customHeight="1" spans="1:4">
-      <c r="A5" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5" s="3" t="s">
+      <c r="A5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="6">
         <v>1</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>39</v>
+      <c r="D5" s="7" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:4">
-      <c r="A6" s="5"/>
-      <c r="B6" s="3" t="s">
+      <c r="A6" s="8"/>
+      <c r="B6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="6">
         <v>0</v>
       </c>
-      <c r="D6" s="5"/>
+      <c r="D6" s="9"/>
     </row>
     <row r="7" customHeight="1" spans="1:4">
-      <c r="A7" s="4"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="3"/>
+      <c r="A7" s="10"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="11"/>
     </row>
     <row r="8" customHeight="1" spans="1:4">
-      <c r="A8" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B8" s="3" t="s">
+      <c r="A8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D8" s="2"/>
+      <c r="C8" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="4"/>
     </row>
     <row r="9" customHeight="1" spans="1:4">
-      <c r="A9" s="6"/>
-      <c r="B9" s="3" t="s">
+      <c r="A9" s="12"/>
+      <c r="B9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="6">
         <v>12</v>
       </c>
-      <c r="D9" s="6"/>
+      <c r="D9" s="12"/>
     </row>
     <row r="10" customHeight="1" spans="1:4">
-      <c r="A10" s="6"/>
-      <c r="B10" s="3" t="s">
+      <c r="A10" s="12"/>
+      <c r="B10" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="6">
         <v>13</v>
       </c>
-      <c r="D10" s="6"/>
+      <c r="D10" s="12"/>
     </row>
     <row r="11" customHeight="1" spans="1:4">
-      <c r="A11" s="5"/>
-      <c r="B11" s="3" t="s">
+      <c r="A11" s="8"/>
+      <c r="B11" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D11" s="5"/>
+      <c r="C11" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="8"/>
     </row>
     <row r="12" customHeight="1" spans="1:4">
-      <c r="A12" s="4"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="3"/>
+      <c r="A12" s="10"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="11"/>
     </row>
     <row r="13" customHeight="1" spans="1:4">
-      <c r="A13" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B13" s="3" t="s">
+      <c r="A13" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="6">
         <v>4</v>
       </c>
-      <c r="D13" s="3"/>
+      <c r="D13" s="11"/>
     </row>
     <row r="14" customHeight="1" spans="1:4">
-      <c r="A14" s="4"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="3"/>
+      <c r="A14" s="10"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="11"/>
     </row>
     <row r="15" customHeight="1" spans="1:4">
-      <c r="A15" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B15" s="3" t="s">
+      <c r="A15" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>50</v>
+      <c r="C15" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:4">
-      <c r="A16" s="5"/>
-      <c r="B16" s="3" t="s">
+      <c r="A16" s="8"/>
+      <c r="B16" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="6">
         <v>2</v>
       </c>
-      <c r="D16" s="5"/>
+      <c r="D16" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2293,6 +2282,7 @@
     <mergeCell ref="D15:D16"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="75" orientation="landscape"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -2303,176 +2293,178 @@
   <sheetPr/>
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D$1:D$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.875" defaultRowHeight="21" customHeight="1" outlineLevelCol="3"/>
   <cols>
+    <col min="1" max="1" width="17.875" style="1"/>
     <col min="3" max="3" width="11.125" customWidth="1"/>
+    <col min="4" max="4" width="49.375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="38.25" customHeight="1" spans="1:4">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>32</v>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:4">
-      <c r="A2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:4">
+      <c r="A3" s="8"/>
+      <c r="B3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="9"/>
+    </row>
+    <row r="4" customHeight="1" spans="1:4">
+      <c r="A4" s="10"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="11"/>
+    </row>
+    <row r="5" customHeight="1" spans="1:4">
+      <c r="A5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="1:4">
+      <c r="A6" s="8"/>
+      <c r="B6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" s="9"/>
+    </row>
+    <row r="7" customHeight="1" spans="1:4">
+      <c r="A7" s="10"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="11"/>
+    </row>
+    <row r="8" customHeight="1" spans="1:4">
+      <c r="A8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" s="4"/>
+    </row>
+    <row r="9" customHeight="1" spans="1:4">
+      <c r="A9" s="12"/>
+      <c r="B9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" s="12"/>
+    </row>
+    <row r="10" customHeight="1" spans="1:4">
+      <c r="A10" s="12"/>
+      <c r="B10" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" s="12"/>
+    </row>
+    <row r="11" customHeight="1" spans="1:4">
+      <c r="A11" s="8"/>
+      <c r="B11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" s="8"/>
+    </row>
+    <row r="12" customHeight="1" spans="1:4">
+      <c r="A12" s="10"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="11"/>
+    </row>
+    <row r="13" customHeight="1" spans="1:4">
+      <c r="A13" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" s="11"/>
+    </row>
+    <row r="14" customHeight="1" spans="1:4">
+      <c r="A14" s="10"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="11"/>
+    </row>
+    <row r="15" customHeight="1" spans="1:4">
+      <c r="A15" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" customHeight="1" spans="1:4">
+      <c r="A16" s="8"/>
+      <c r="B16" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" customHeight="1" spans="1:4">
-      <c r="A3" s="5"/>
-      <c r="B3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D3" s="5"/>
-    </row>
-    <row r="4" customHeight="1" spans="1:4">
-      <c r="A4" s="4"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="3"/>
-    </row>
-    <row r="5" customHeight="1" spans="1:4">
-      <c r="A5" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" customHeight="1" spans="1:4">
-      <c r="A6" s="5"/>
-      <c r="B6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D6" s="5"/>
-    </row>
-    <row r="7" customHeight="1" spans="1:4">
-      <c r="A7" s="4"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="3"/>
-    </row>
-    <row r="8" customHeight="1" spans="1:4">
-      <c r="A8" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D8" s="2"/>
-    </row>
-    <row r="9" customHeight="1" spans="1:4">
-      <c r="A9" s="6"/>
-      <c r="B9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D9" s="6"/>
-    </row>
-    <row r="10" customHeight="1" spans="1:4">
-      <c r="A10" s="6"/>
-      <c r="B10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D10" s="6"/>
-    </row>
-    <row r="11" customHeight="1" spans="1:4">
-      <c r="A11" s="5"/>
-      <c r="B11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D11" s="5"/>
-    </row>
-    <row r="12" customHeight="1" spans="1:4">
-      <c r="A12" s="4"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="3"/>
-    </row>
-    <row r="13" customHeight="1" spans="1:4">
-      <c r="A13" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D13" s="3"/>
-    </row>
-    <row r="14" customHeight="1" spans="1:4">
-      <c r="A14" s="4"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="3"/>
-    </row>
-    <row r="15" customHeight="1" spans="1:4">
-      <c r="A15" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" customHeight="1" spans="1:4">
-      <c r="A16" s="5"/>
-      <c r="B16" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D16" s="5"/>
+      <c r="D16" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2486,6 +2478,7 @@
     <mergeCell ref="D15:D16"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="75" orientation="landscape"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
